--- a/exampledata/bubba_harris_protocol.xlsx
+++ b/exampledata/bubba_harris_protocol.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Dropbox (Personal)\Public\NYTTraining\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -12,9 +17,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timeline!$A$1:$K$69</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Timeline!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sarah</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,36 +59,15 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Entry</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
     <t>On-duty domestic dispute</t>
   </si>
   <si>
-    <t>Who</t>
-  </si>
-  <si>
     <t>Certification database</t>
   </si>
   <si>
     <t>IA investigative report</t>
   </si>
   <si>
-    <t>Policy_question</t>
-  </si>
-  <si>
     <t>Hartsell</t>
   </si>
   <si>
@@ -111,9 +96,6 @@
   </si>
   <si>
     <t>This is where he held a knife to her throat and said, "I ought to fucking slit your throat" while at Jessie's parents' house</t>
-  </si>
-  <si>
-    <t>When known</t>
   </si>
   <si>
     <t>Jessie calls Noble, who goes to house, who calls Tanner</t>
@@ -650,12 +632,6 @@
     <t>St. John's County court records</t>
   </si>
   <si>
-    <t>Begin date (approx)</t>
-  </si>
-  <si>
-    <t>End date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Harris self-reported the call from Cameron as he should have (though it seems he lied); should have triggered an investigation. </t>
   </si>
   <si>
@@ -768,12 +744,42 @@
   </si>
   <si>
     <t>St John County court docket</t>
+  </si>
+  <si>
+    <t>approx_begin_dt</t>
+  </si>
+  <si>
+    <t>approx_end_dt</t>
+  </si>
+  <si>
+    <t>when_sjso_known</t>
+  </si>
+  <si>
+    <t>short_entry</t>
+  </si>
+  <si>
+    <t>detailed_entry</t>
+  </si>
+  <si>
+    <t>timing_notes</t>
+  </si>
+  <si>
+    <t>document_name</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>policy_quesion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -919,6 +925,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -966,7 +975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -999,9 +1008,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,6 +1060,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1209,8 +1252,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K69"/>
@@ -1219,1991 +1262,2001 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="68.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="48.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>36130</v>
-      </c>
-      <c r="B2" s="5">
-        <v>39783</v>
-      </c>
+    <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>39806.541666666664</v>
+      </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="6">
-        <v>39811</v>
+        <v>39806.541666666664</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
-        <v>36229</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+        <v>39023</v>
+      </c>
+      <c r="B3" s="6">
+        <v>39934</v>
+      </c>
+      <c r="C3" s="6">
+        <v>39023</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="3">
-        <v>34</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
-        <v>36965</v>
-      </c>
-      <c r="B4" s="6">
-        <v>38061</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>38950</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6">
+        <v>38930</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>37554</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>39814</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4">
+        <v>39814</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="K5" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>38565</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>39811</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
         <v>39811</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>38777</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A7" s="15">
+        <v>39806.541666666664</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
+        <v>39806.583333333336</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="16">
+        <v>3</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>39806.666666666664</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>39806.666666666664</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>39718</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>39718</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
+        <v>36130</v>
+      </c>
+      <c r="B10" s="5">
+        <v>39783</v>
+      </c>
+      <c r="C10" s="6">
         <v>39811</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>38869</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6">
-        <v>39811</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="3">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>38950</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
-        <v>38930</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>39023</v>
-      </c>
-      <c r="B10" s="6">
-        <v>39934</v>
-      </c>
-      <c r="C10" s="6">
-        <v>39023</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>39052</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>38565</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
-        <v>39890</v>
+        <v>39811</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H11" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>39083</v>
-      </c>
-      <c r="B12" s="4">
-        <v>39814</v>
-      </c>
+        <v>38777</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6">
         <v>39811</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
-        <v>39114</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>39083</v>
+      </c>
+      <c r="B13" s="4">
+        <v>39814</v>
+      </c>
       <c r="C13" s="6">
         <v>39811</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>39125</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>39264</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6">
         <v>39811</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="16">
-        <v>9</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="K14" s="16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
-        <v>39234</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+        <v>39530</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>39811</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3">
-        <v>23</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <v>39264</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>39539</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="6">
         <v>39811</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3">
         <v>6</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>39469</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
+        <v>39692</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4">
+        <v>39692</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7</v>
+      </c>
       <c r="I17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="K17" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>39530</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>39717</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
-        <v>39811</v>
+        <v>39717</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3">
-        <v>6</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="K18" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
-        <v>39539</v>
+        <v>39722</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="6">
-        <v>39811</v>
+      <c r="C19" s="4">
+        <v>39722</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3">
-        <v>6</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
-        <v>39569</v>
+        <v>39723</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
-        <v>39890</v>
+        <v>39811</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G20" s="3" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3">
         <v>8</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>39724</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>39811</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="15">
+        <v>39767</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15">
+        <v>39767</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="16">
+        <v>8</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>39801</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>39811</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <f>A26-7</f>
+        <v>36958</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
+        <v>39805</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="6">
+        <v>39811</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>36965</v>
+      </c>
+      <c r="B26" s="6">
+        <v>38061</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>39661</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="3">
-        <v>12</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>39661</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>39692</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4">
-        <v>39692</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="3">
-        <v>7</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>39717</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6">
-        <v>39717</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="3">
-        <v>7</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>39718</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
-        <v>39718</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
         <v>26</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="3">
+    </row>
+    <row r="27" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <v>38869</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="6">
+        <v>39811</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>39718</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15">
-        <v>39718</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="16">
-        <v>10</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>39718</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="3">
-        <v>6</v>
-      </c>
       <c r="I27" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <v>39114</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6">
+        <v>39811</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="3">
+        <v>9</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="15">
+        <v>39125</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15">
+        <v>39811</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="16">
+        <v>9</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="15">
         <v>39718</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="B30" s="16"/>
+      <c r="C30" s="15">
+        <v>39718</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="16">
+        <v>10</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>39718.833333333336</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="K30" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="7">
         <v>39719.375</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="6">
+      <c r="B31" s="3"/>
+      <c r="C31" s="6">
         <v>39719</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="3">
-        <v>10</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>39719.395833333336</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
       <c r="D31" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H31" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>39719.4375</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>39718</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="H32" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>39719.458333333336</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>39719.625</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="H33" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="J33" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="K33" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>39719.625</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" s="4">
+        <v>39661</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H34" s="3">
         <v>12</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>39719.75</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="4">
+        <v>39234</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="H35" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>161</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="J35" s="3"/>
       <c r="K35" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>39721</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="16">
-        <v>4</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K36" s="16">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>39750</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>39853</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="3">
+        <v>27</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
+        <v>39854</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>236</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H37" s="3">
+        <v>31</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
-        <v>39722</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4">
-        <v>39722</v>
-      </c>
+        <v>39783</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H38" s="3">
-        <v>8</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="K38" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>39723</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6">
-        <v>39811</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
+        <v>39853</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H39" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>39724</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6">
-        <v>39811</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
+        <v>36229</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="F40" s="3" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H40" s="3">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="K40" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>39773</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A41" s="6">
+        <v>37554</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>223</v>
+        <v>106</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H41" s="3">
+        <v>35</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="K41" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>39767</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15">
-        <v>39767</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="16">
-        <v>8</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K42" s="16">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>39783</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="3">
-        <v>32</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <f>A46-7</f>
-        <v>39794</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>39820</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="3">
+        <v>36</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A43" s="17">
+        <v>39814</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="16">
+        <v>37</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="4">
+        <v>39661</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H44" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="K44" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
-        <v>39797</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+        <v>39718.833333333336</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H45" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
-        <v>39801</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6">
-        <v>39811</v>
-      </c>
+        <v>39719.395833333336</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="3" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H46" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J46" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="K46" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>39805</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="7">
+        <v>39719.4375</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="6">
-        <v>39811</v>
-      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="3" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H47" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>39806.541666666664</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6">
-        <v>39806.541666666664</v>
-      </c>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="7">
+        <v>39719.458333333336</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="3" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G48" s="3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="15">
-        <v>39806.541666666664</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15">
-        <v>39806.583333333336</v>
-      </c>
+        <v>39721</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="16" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="16"/>
+        <v>150</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="G49" s="16" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H49" s="16">
-        <v>3</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>215</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I49" s="16"/>
       <c r="J49" s="16" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K49" s="16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50" s="4">
+        <v>39859</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="3">
+        <v>45</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="171" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="6">
+        <v>39719.75</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="3">
+        <v>6</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K51" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="8">
+        <v>39888</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="9">
+        <v>39888.447916666664</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>39806.666666666664</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6">
-        <v>39806.666666666664</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="3">
-        <v>3</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="3">
+      <c r="I53" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="6">
+        <v>39052</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6">
+        <v>39890</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>39811</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6">
-        <v>39811</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="3">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51" s="3">
+      <c r="I54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="6">
+        <v>39718</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>39814</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="4">
-        <v>39814</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
-        <v>39814</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" s="16" t="s">
+      <c r="I55" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="16">
-        <v>37</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K53" s="16">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>39820</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="3">
-        <v>36</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K54" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>39853</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H55" s="3">
-        <v>27</v>
-      </c>
-      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>39853</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="4">
+        <v>39569</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6">
+        <v>39890</v>
+      </c>
       <c r="D56" s="3" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H56" s="3">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
-        <v>39854</v>
+        <v>39890</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H57" s="3">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>39859</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
+        <v>39797</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="3" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="G58" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H58" s="3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
-        <v>39873</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="15">
+        <v>39892</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="K59" s="16">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>39888</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>40716</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
       <c r="G60" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>39888.447916666664</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
+        <v>39929</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H61" s="3">
-        <v>7</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
-        <v>39890</v>
+        <v>40023</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="G62" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="H62" s="3"/>
       <c r="I62" s="3" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
-        <v>39892</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K63" s="16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="6">
+        <v>40043</v>
+      </c>
+      <c r="B63" s="6">
+        <v>40059</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
-        <v>39929</v>
+        <v>40190</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="G64" s="3" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>40023</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>40043</v>
-      </c>
-      <c r="B66" s="6">
-        <v>40059</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="17">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K65" s="16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="4">
+        <v>39773</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>228</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="3" t="s">
-        <v>234</v>
-      </c>
+      <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>40190</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="4">
+        <v>39750</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="F67" s="3" t="s">
         <v>226</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>40716</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="4">
+        <v>39469</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="14">
         <v>40721</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K69" s="1">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K61">
-    <sortCondition ref="A2:A61"/>
+  <autoFilter ref="A1:K69" xr:uid="{15455C0F-FF97-4634-AC4E-F78DD675D452}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="IA report"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:K69">
+    <sortCondition ref="K2:K69"/>
   </sortState>
   <conditionalFormatting sqref="A41:D41 F41:K41 A42:K67 A1:K40">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -3223,43 +3276,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="95.28515625" customWidth="1"/>
+    <col min="1" max="1" width="95.265625" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3273,12 +3326,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
